--- a/medicine/Enfance/Julie_Bernard_(auteure-illustratrice)/Julie_Bernard_(auteure-illustratrice).xlsx
+++ b/medicine/Enfance/Julie_Bernard_(auteure-illustratrice)/Julie_Bernard_(auteure-illustratrice).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julie Bernard, dite Li, née en 1990 au Port, est une illustratrice française de livres jeunesse, qui vit à Saint-Leu à La Réunion.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Venant d'un milieu créatif (ses parents sont artisans créateurs)[1], Julie Bernard étudie les arts graphiques à l'école Auguste Renoir à Paris et aux Beaux Arts de Bruxelles. Elle est diplômée en 2015 d’un master 2 en illustration.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Venant d'un milieu créatif (ses parents sont artisans créateurs), Julie Bernard étudie les arts graphiques à l'école Auguste Renoir à Paris et aux Beaux Arts de Bruxelles. Elle est diplômée en 2015 d’un master 2 en illustration.
 Elle travaille aujourd'hui en tant qu'artiste indépendante, auteure et illustratrice, notamment d'albums jeunesse. 
-Son univers graphique coloré et poétique est remarqué à l'étranger où elle obtient plusieurs prix[2]. À La Réunion, elle obtient le prix Vanille 2019 catégorie Illustration pour deux titres, Le livre des métiers : un imaginaire pour demain et Z’oiseaux rares[3].
+Son univers graphique coloré et poétique est remarqué à l'étranger où elle obtient plusieurs prix. À La Réunion, elle obtient le prix Vanille 2019 catégorie Illustration pour deux titres, Le livre des métiers : un imaginaire pour demain et Z’oiseaux rares.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une goutte de pluie dans l’océan, auto-édition, 2016
 60 questions étonnantes sur l'amour : et les réponses qu'y apporte la science, avec Marc Olano (texte), éditions Mardaga, 2016  (ISBN 978-2-8047-0320-2)
@@ -579,14 +595,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2015 : Green Island Award au Nami Concours (Corée du Sud)
 2016 : sélection à Ilustrarte – Lisbonne (Portugal)
 2017 : sélection au Nami Concours (Corée du Sud)
 2018 : grand prix de CICLA Original Illustration Exhibition (Shanghai – Chine)
 2019 : prix Vanille (La Réunion) pour Le livre des métiers : un imaginaire pour demain et Z’oiseaux rares
-2020 : sélection au prix UNICEF de littérature jeunesse[4] pour Le livre des métiers : un imaginaire pour demain</t>
+2020 : sélection au prix UNICEF de littérature jeunesse pour Le livre des métiers : un imaginaire pour demain</t>
         </is>
       </c>
     </row>
